--- a/03_Figures/03_Maps/Data/Unemployment/Data cleaned per country/Luxembourg-cleaned.xlsx
+++ b/03_Figures/03_Maps/Data/Unemployment/Data cleaned per country/Luxembourg-cleaned.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhachaichi\Pictures\ESPON-DATA\03_Figures\03_Maps\Data\Unemployment\Data cleaned per country\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhachaichi\Documents\ESPON-DATA\03_Figures\03_Maps\Data\Unemployment\Data cleaned per country\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7822A495-D56B-4A5B-9E6D-02786B6062A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A124B5F8-E9BC-425B-B419-D8865DE8E3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13980" yWindow="1980" windowWidth="13245" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12225" yWindow="1665" windowWidth="12630" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -696,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2">
-        <v>8.40273</v>
+        <v>8.3790099999999992</v>
       </c>
       <c r="F2" s="3">
         <v>8.6102699999999999</v>
@@ -760,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2">
-        <v>4.1591300000000002</v>
+        <v>2.9850699999999999</v>
       </c>
       <c r="F3" s="3">
         <v>3.2258100000000001</v>
@@ -780,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>4.8374300000000003</v>
+        <v>3.4138199999999999</v>
       </c>
       <c r="F4" s="3">
         <v>5.1036700000000002</v>
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>6.17577</v>
+        <v>5.3708400000000003</v>
       </c>
       <c r="F5" s="3">
         <v>5.0410300000000001</v>
@@ -820,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2">
-        <v>5.1418400000000002</v>
+        <v>4.0358700000000001</v>
       </c>
       <c r="F6" s="3">
         <v>4.8991400000000001</v>
@@ -840,7 +840,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="2">
-        <v>5.4914399999999999</v>
+        <v>5.0505100000000001</v>
       </c>
       <c r="F7" s="3">
         <v>5.7899900000000004</v>
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>5.3168199999999999</v>
+        <v>5.0152000000000001</v>
       </c>
       <c r="F8" s="3">
         <v>4.3736100000000002</v>
@@ -880,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="2">
-        <v>3.6427700000000001</v>
+        <v>3.3033000000000001</v>
       </c>
       <c r="F9" s="3">
         <v>2.8504900000000002</v>
@@ -900,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="2">
-        <v>5.1948100000000004</v>
+        <v>4.6997400000000003</v>
       </c>
       <c r="F10" s="3">
         <v>4.0469999999999997</v>
@@ -920,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="2">
-        <v>4.9295799999999996</v>
+        <v>4.7058799999999996</v>
       </c>
       <c r="F11" s="3">
         <v>5.8402900000000004</v>
@@ -940,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="2">
-        <v>5.4054099999999998</v>
+        <v>6.25</v>
       </c>
       <c r="F12" s="3">
         <v>5.9011199999999997</v>
@@ -960,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="2">
-        <v>6.60025</v>
+        <v>7.0632000000000001</v>
       </c>
       <c r="F13" s="3">
         <v>6.9478900000000001</v>
@@ -980,7 +980,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="2">
-        <v>1.7964100000000001</v>
+        <v>2.8776999999999999</v>
       </c>
       <c r="F14" s="3">
         <v>2.2118699999999998</v>
@@ -1000,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="2">
-        <v>8.1188099999999999</v>
+        <v>7.2039099999999996</v>
       </c>
       <c r="F15" s="3">
         <v>7.5009699999999997</v>
@@ -1020,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="2">
-        <v>6.48855</v>
+        <v>5.2532800000000002</v>
       </c>
       <c r="F16" s="3">
         <v>5.1094900000000001</v>
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="2">
-        <v>3.7267100000000002</v>
+        <v>4.0084400000000002</v>
       </c>
       <c r="F17" s="3">
         <v>3.7656900000000002</v>
@@ -1060,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="2">
-        <v>4.6115000000000004</v>
+        <v>3.3722400000000001</v>
       </c>
       <c r="F18" s="3">
         <v>4.4776100000000003</v>
@@ -1080,7 +1080,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="2">
-        <v>4.7618999999999998</v>
+        <v>5.1724100000000002</v>
       </c>
       <c r="F19" s="3">
         <v>4.0451600000000001</v>
@@ -1100,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="2">
-        <v>7.8144099999999996</v>
+        <v>7.0837199999999996</v>
       </c>
       <c r="F20" s="3">
         <v>8.2229799999999997</v>
@@ -1120,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="2">
-        <v>9.0162700000000005</v>
+        <v>8.14452</v>
       </c>
       <c r="F21" s="3">
         <v>9.2885100000000005</v>
@@ -1140,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="2">
-        <v>5.5390699999999997</v>
+        <v>4.5664400000000001</v>
       </c>
       <c r="F22" s="3">
         <v>6.3893000000000004</v>
@@ -1160,7 +1160,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="2">
-        <v>7.3641399999999999</v>
+        <v>6.6472199999999999</v>
       </c>
       <c r="F23" s="3">
         <v>7.2588699999999999</v>
@@ -1180,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="2">
-        <v>8.0226900000000008</v>
+        <v>6.8448799999999999</v>
       </c>
       <c r="F24" s="3">
         <v>8.3696900000000003</v>
@@ -1200,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="2">
-        <v>4.1835399999999998</v>
+        <v>2.7982300000000002</v>
       </c>
       <c r="F25" s="3">
         <v>3.6458300000000001</v>
@@ -1220,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="2">
-        <v>4.7202799999999998</v>
+        <v>4.1095899999999999</v>
       </c>
       <c r="F26" s="3">
         <v>3.7952300000000001</v>
@@ -1240,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="2">
-        <v>11.4421</v>
+        <v>9.6328099999999992</v>
       </c>
       <c r="F27" s="3">
         <v>10.926019999999999</v>
@@ -1260,7 +1260,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="2">
-        <v>6.7055400000000001</v>
+        <v>5.2132699999999996</v>
       </c>
       <c r="F28" s="3">
         <v>5.9233399999999996</v>
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="2">
-        <v>9.0689200000000003</v>
+        <v>8.6456</v>
       </c>
       <c r="F29" s="3">
         <v>8.4657300000000006</v>
@@ -1300,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="2">
-        <v>4.1860499999999998</v>
+        <v>3.6608900000000002</v>
       </c>
       <c r="F30" s="3">
         <v>3.58127</v>
@@ -1320,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="2">
-        <v>3.1745999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="F31" s="3">
         <v>2.2435900000000002</v>
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="2">
-        <v>3.0612200000000001</v>
+        <v>1.98123</v>
       </c>
       <c r="F32" s="3">
         <v>2.9322499999999998</v>
@@ -1360,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="2">
-        <v>4.5293099999999997</v>
+        <v>3.5925400000000001</v>
       </c>
       <c r="F33" s="3">
         <v>4.88889</v>
@@ -1380,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="2">
-        <v>2.5906699999999998</v>
+        <v>2.9927800000000002</v>
       </c>
       <c r="F34" s="3">
         <v>2.2633700000000001</v>
@@ -1400,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="2">
-        <v>5.3708400000000003</v>
+        <v>3.6144599999999998</v>
       </c>
       <c r="F35" s="3">
         <v>5.3177700000000003</v>
@@ -1420,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="2">
-        <v>6.3063099999999999</v>
+        <v>5.8296000000000001</v>
       </c>
       <c r="F36" s="3">
         <v>6.1242700000000001</v>
@@ -1440,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="2">
-        <v>5.1878399999999996</v>
+        <v>3.91459</v>
       </c>
       <c r="F37" s="3">
         <v>5.2631600000000001</v>
@@ -1460,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="2">
-        <v>3.92</v>
+        <v>3.57</v>
       </c>
       <c r="F38" s="3">
         <v>4</v>
@@ -1480,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="2">
-        <v>2.8727800000000001</v>
+        <v>2.4045299999999998</v>
       </c>
       <c r="F39" s="3">
         <v>3.0054599999999998</v>
@@ -1500,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="2">
-        <v>3.38</v>
+        <v>3.18</v>
       </c>
       <c r="F40" s="3">
         <v>3.2258100000000001</v>
@@ -1520,7 +1520,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="2">
-        <v>5.4171500000000004</v>
+        <v>4.3643799999999997</v>
       </c>
       <c r="F41" s="3">
         <v>6.0829399999999998</v>
@@ -1540,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="2">
-        <v>4.0568600000000004</v>
+        <v>3.30477</v>
       </c>
       <c r="F42" s="3">
         <v>3.5322100000000001</v>
@@ -1560,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="2">
-        <v>4.9371999999999998</v>
+        <v>4.8672599999999999</v>
       </c>
       <c r="F43" s="3">
         <v>5.2990000000000004</v>
@@ -1580,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="2">
-        <v>6.8462399999999999</v>
+        <v>5.7806100000000002</v>
       </c>
       <c r="F44" s="3">
         <v>6.6403699999999999</v>
@@ -1600,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="2">
-        <v>3.10711</v>
+        <v>2.9411800000000001</v>
       </c>
       <c r="F45" s="3">
         <v>3.10711</v>
@@ -1620,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="2">
-        <v>7.3426600000000004</v>
+        <v>5.4545500000000002</v>
       </c>
       <c r="F46" s="3">
         <v>5.6939500000000001</v>
@@ -1640,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="2">
-        <v>4.1591300000000002</v>
+        <v>4.3238300000000001</v>
       </c>
       <c r="F47" s="3">
         <v>3.4852500000000002</v>
@@ -1660,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="2">
-        <v>4.9716800000000001</v>
+        <v>4.1269799999999996</v>
       </c>
       <c r="F48" s="3">
         <v>5.8895</v>
@@ -1680,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="2">
-        <v>4.9826199999999998</v>
+        <v>4.9881200000000003</v>
       </c>
       <c r="F49" s="3">
         <v>5.5374600000000003</v>
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="2">
-        <v>5.8380400000000003</v>
+        <v>5.4966200000000001</v>
       </c>
       <c r="F50" s="3">
         <v>5.39262</v>
@@ -1720,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="2">
-        <v>4.8140000000000001</v>
+        <v>4.2675900000000002</v>
       </c>
       <c r="F51" s="3">
         <v>4.5005499999999996</v>
@@ -1740,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="2">
-        <v>5.3627799999999999</v>
+        <v>4.5346099999999998</v>
       </c>
       <c r="F52" s="3">
         <v>5.3061199999999999</v>
@@ -1760,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="2">
-        <v>4.35914</v>
+        <v>4.4166100000000004</v>
       </c>
       <c r="F53" s="3">
         <v>4.8519199999999998</v>
@@ -1780,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="2">
-        <v>4.4117600000000001</v>
+        <v>2.8268599999999999</v>
       </c>
       <c r="F54" s="3">
         <v>4.1850199999999997</v>
@@ -1800,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="2">
-        <v>7.3811</v>
+        <v>6.1561599999999999</v>
       </c>
       <c r="F55" s="3">
         <v>7.3490700000000002</v>
@@ -1820,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="2">
-        <v>4.8951000000000002</v>
+        <v>4.8149199999999999</v>
       </c>
       <c r="F56" s="3">
         <v>4.8754600000000003</v>
@@ -1840,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="2">
-        <v>1.89873</v>
+        <v>2.6738</v>
       </c>
       <c r="F57" s="3">
         <v>3.42679</v>
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="2">
-        <v>5.22506</v>
+        <v>5.0215899999999998</v>
       </c>
       <c r="F58" s="3">
         <v>5.3022</v>
@@ -1880,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="2">
-        <v>6.3725500000000004</v>
+        <v>4.9524800000000004</v>
       </c>
       <c r="F59" s="3">
         <v>6.26518</v>
@@ -1900,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="2">
-        <v>4.8938100000000002</v>
+        <v>4.00746</v>
       </c>
       <c r="F60" s="3">
         <v>4.3238300000000001</v>
@@ -1920,7 +1920,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="2">
-        <v>4.8387099999999998</v>
+        <v>4.1761100000000004</v>
       </c>
       <c r="F61" s="3">
         <v>4.7925399999999998</v>
@@ -1940,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="2">
-        <v>7.1936099999999996</v>
+        <v>5.8558599999999998</v>
       </c>
       <c r="F62" s="3">
         <v>6.5255700000000001</v>
@@ -1960,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="2">
-        <v>4.01891</v>
+        <v>3.5339100000000001</v>
       </c>
       <c r="F63" s="3">
         <v>4.6082900000000002</v>
@@ -1980,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="2">
-        <v>3.5608300000000002</v>
+        <v>2.9850699999999999</v>
       </c>
       <c r="F64" s="3">
         <v>3.9301300000000001</v>
@@ -2000,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="2">
-        <v>5.7767799999999996</v>
+        <v>5.7498500000000003</v>
       </c>
       <c r="F65" s="3">
         <v>5.0218299999999996</v>
@@ -2020,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="E66" s="2">
-        <v>7.5567000000000002</v>
+        <v>7.4260200000000003</v>
       </c>
       <c r="F66" s="3">
         <v>7.6029600000000004</v>
@@ -2040,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="E67" s="2">
-        <v>3.4307500000000002</v>
+        <v>3.26633</v>
       </c>
       <c r="F67" s="3">
         <v>3.94089</v>
@@ -2060,7 +2060,7 @@
         <v>1</v>
       </c>
       <c r="E68" s="2">
-        <v>5.2224399999999997</v>
+        <v>3.54331</v>
       </c>
       <c r="F68" s="3">
         <v>4.4834300000000002</v>
@@ -2080,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="E69" s="2">
-        <v>6.3725500000000004</v>
+        <v>6.4089499999999999</v>
       </c>
       <c r="F69" s="3">
         <v>6.8083099999999996</v>
@@ -2100,7 +2100,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="2">
-        <v>2.9288699999999999</v>
+        <v>2.4390200000000002</v>
       </c>
       <c r="F70" s="3">
         <v>2.69828</v>
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="E71" s="2">
-        <v>3.9039000000000001</v>
+        <v>3.3018900000000002</v>
       </c>
       <c r="F71" s="3">
         <v>3.2983500000000001</v>
@@ -2140,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="E72" s="2">
-        <v>10.7438</v>
+        <v>7.0945900000000002</v>
       </c>
       <c r="F72" s="3">
         <v>8.7947900000000008</v>
@@ -2160,7 +2160,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="2">
-        <v>8.1823899999999998</v>
+        <v>7.6533800000000003</v>
       </c>
       <c r="F73" s="3">
         <v>9.2032100000000003</v>
@@ -2180,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="2">
-        <v>4.4544899999999998</v>
+        <v>3.7711299999999999</v>
       </c>
       <c r="F74" s="3">
         <v>4.9454099999999999</v>
@@ -2200,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="E75" s="2">
-        <v>3.72</v>
+        <v>3.5</v>
       </c>
       <c r="F75" s="3">
         <v>5.3075999999999999</v>
@@ -2220,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="2">
-        <v>9.2717899999999993</v>
+        <v>7.6065300000000002</v>
       </c>
       <c r="F76" s="3">
         <v>8.6234199999999994</v>
@@ -2240,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="2">
-        <v>4.3062199999999997</v>
+        <v>3.9812599999999998</v>
       </c>
       <c r="F77" s="3">
         <v>4.1394299999999999</v>
@@ -2260,7 +2260,7 @@
         <v>1</v>
       </c>
       <c r="E78" s="2">
-        <v>4.5725600000000002</v>
+        <v>4.2407700000000004</v>
       </c>
       <c r="F78" s="3">
         <v>5.9829100000000004</v>
@@ -2280,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="E79" s="2">
-        <v>6.3772000000000002</v>
+        <v>5.8690499999999997</v>
       </c>
       <c r="F79" s="3">
         <v>6.2989300000000004</v>
@@ -2300,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="E80" s="2">
-        <v>4.2045899999999996</v>
+        <v>3.4971199999999998</v>
       </c>
       <c r="F80" s="3">
         <v>5.0522600000000004</v>
@@ -2320,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="E81" s="2">
-        <v>5.1546399999999997</v>
+        <v>4.2663900000000003</v>
       </c>
       <c r="F81" s="3">
         <v>5.1463200000000002</v>
@@ -2340,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="E82" s="2">
-        <v>7.1109499999999999</v>
+        <v>6.7212800000000001</v>
       </c>
       <c r="F82" s="3">
         <v>7.5112100000000002</v>
@@ -2360,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="E83" s="2">
-        <v>4.0097199999999997</v>
+        <v>3.14621</v>
       </c>
       <c r="F83" s="3">
         <v>4.1180099999999999</v>
@@ -2380,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="E84" s="2">
-        <v>5.4779799999999996</v>
+        <v>3.9735100000000001</v>
       </c>
       <c r="F84" s="3">
         <v>5.7203400000000002</v>
@@ -2400,7 +2400,7 @@
         <v>1</v>
       </c>
       <c r="E85" s="2">
-        <v>4.9221700000000004</v>
+        <v>3.8630399999999998</v>
       </c>
       <c r="F85" s="3">
         <v>5.5280500000000004</v>
@@ -2420,7 +2420,7 @@
         <v>1</v>
       </c>
       <c r="E86" s="2">
-        <v>3.7999000000000001</v>
+        <v>3.7145700000000001</v>
       </c>
       <c r="F86" s="3">
         <v>3.9280599999999999</v>
@@ -2440,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="E87" s="2">
-        <v>5.7377000000000002</v>
+        <v>4.7143899999999999</v>
       </c>
       <c r="F87" s="3">
         <v>5.5645300000000004</v>
@@ -2460,7 +2460,7 @@
         <v>1</v>
       </c>
       <c r="E88" s="2">
-        <v>5.16432</v>
+        <v>4.0697700000000001</v>
       </c>
       <c r="F88" s="3">
         <v>4.39771</v>
@@ -2480,7 +2480,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="2">
-        <v>7.0221099999999996</v>
+        <v>5.7350000000000003</v>
       </c>
       <c r="F89" s="3">
         <v>7.1207399999999996</v>
@@ -2500,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="E90" s="2">
-        <v>4.9145300000000001</v>
+        <v>3.8673999999999999</v>
       </c>
       <c r="F90" s="3">
         <v>4.4516799999999996</v>
@@ -2520,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="E91" s="2">
-        <v>5.77508</v>
+        <v>4.9808399999999997</v>
       </c>
       <c r="F91" s="3">
         <v>4.4394299999999998</v>
@@ -2540,7 +2540,7 @@
         <v>1</v>
       </c>
       <c r="E92" s="2">
-        <v>11.200810000000001</v>
+        <v>8.9958200000000001</v>
       </c>
       <c r="F92" s="3">
         <v>9.5427400000000002</v>
@@ -2560,7 +2560,7 @@
         <v>1</v>
       </c>
       <c r="E93" s="2">
-        <v>4.9079800000000002</v>
+        <v>4.61538</v>
       </c>
       <c r="F93" s="3">
         <v>4.9707600000000003</v>
@@ -2580,7 +2580,7 @@
         <v>1</v>
       </c>
       <c r="E94" s="2">
-        <v>4.4585999999999997</v>
+        <v>4.23163</v>
       </c>
       <c r="F94" s="3">
         <v>2.8077800000000002</v>
@@ -2600,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="E95" s="2">
-        <v>3.0439699999999998</v>
+        <v>4.8165100000000001</v>
       </c>
       <c r="F95" s="3">
         <v>4.6087899999999999</v>
@@ -2620,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="E96" s="2">
-        <v>4.4943799999999996</v>
+        <v>4.8543700000000003</v>
       </c>
       <c r="F96" s="3">
         <v>5.3571400000000002</v>
@@ -2640,7 +2640,7 @@
         <v>1</v>
       </c>
       <c r="E97" s="2">
-        <v>5.5843400000000001</v>
+        <v>4.8189200000000003</v>
       </c>
       <c r="F97" s="3">
         <v>5.3738299999999999</v>
@@ -2660,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="E98" s="2">
-        <v>3.9767199999999998</v>
+        <v>3.1007799999999999</v>
       </c>
       <c r="F98" s="3">
         <v>3.13653</v>
@@ -2680,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="E99" s="2">
-        <v>5.9405900000000003</v>
+        <v>5.4054099999999998</v>
       </c>
       <c r="F99" s="3">
         <v>5.6785399999999999</v>
@@ -2700,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="E100" s="2">
-        <v>11.96528</v>
+        <v>10.67961</v>
       </c>
       <c r="F100" s="3">
         <v>10.49658</v>
@@ -2720,7 +2720,7 @@
         <v>1</v>
       </c>
       <c r="E101" s="2">
-        <v>5.4373500000000003</v>
+        <v>4.5105599999999999</v>
       </c>
       <c r="F101" s="3">
         <v>5.6158599999999996</v>
@@ -2740,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="E102" s="2">
-        <v>7.1310099999999998</v>
+        <v>6.4039400000000004</v>
       </c>
       <c r="F102" s="3">
         <v>6.79305</v>
@@ -2760,7 +2760,7 @@
         <v>1</v>
       </c>
       <c r="E103" s="2">
-        <v>5.28634</v>
+        <v>5.2945599999999997</v>
       </c>
       <c r="F103" s="3">
         <v>5.82315</v>

--- a/03_Figures/03_Maps/Data/Unemployment/Data cleaned per country/Luxembourg-cleaned.xlsx
+++ b/03_Figures/03_Maps/Data/Unemployment/Data cleaned per country/Luxembourg-cleaned.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhachaichi\Documents\ESPON-DATA\03_Figures\03_Maps\Data\Unemployment\Data cleaned per country\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A124B5F8-E9BC-425B-B419-D8865DE8E3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0603D3-83AE-4242-BC3D-3167A6CA6777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12225" yWindow="1665" windowWidth="12630" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="350" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -377,6 +386,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -696,17 +706,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>103</v>
       </c>
@@ -726,7 +736,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -746,7 +756,7 @@
         <v>8.6102699999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -766,7 +776,7 @@
         <v>3.2258100000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>106</v>
       </c>
@@ -786,7 +796,7 @@
         <v>5.1036700000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -806,7 +816,7 @@
         <v>5.0410300000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -826,7 +836,7 @@
         <v>4.8991400000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -846,7 +856,7 @@
         <v>5.7899900000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -866,7 +876,7 @@
         <v>4.3736100000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -886,7 +896,7 @@
         <v>2.8504900000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>106</v>
       </c>
@@ -906,7 +916,7 @@
         <v>4.0469999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -926,7 +936,7 @@
         <v>5.8402900000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -946,7 +956,7 @@
         <v>5.9011199999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -966,7 +976,7 @@
         <v>6.9478900000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -986,7 +996,7 @@
         <v>2.2118699999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -1006,7 +1016,7 @@
         <v>7.5009699999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -1026,7 +1036,7 @@
         <v>5.1094900000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -1046,7 +1056,7 @@
         <v>3.7656900000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>106</v>
       </c>
@@ -1066,7 +1076,7 @@
         <v>4.4776100000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>106</v>
       </c>
@@ -1086,7 +1096,7 @@
         <v>4.0451600000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>106</v>
       </c>
@@ -1106,7 +1116,7 @@
         <v>8.2229799999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>106</v>
       </c>
@@ -1126,7 +1136,7 @@
         <v>9.2885100000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -1146,7 +1156,7 @@
         <v>6.3893000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -1166,7 +1176,7 @@
         <v>7.2588699999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>106</v>
       </c>
@@ -1186,7 +1196,7 @@
         <v>8.3696900000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -1206,7 +1216,7 @@
         <v>3.6458300000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -1226,7 +1236,7 @@
         <v>3.7952300000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>106</v>
       </c>
@@ -1246,7 +1256,7 @@
         <v>10.926019999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -1266,7 +1276,7 @@
         <v>5.9233399999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -1286,7 +1296,7 @@
         <v>8.4657300000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>106</v>
       </c>
@@ -1306,7 +1316,7 @@
         <v>3.58127</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>106</v>
       </c>
@@ -1326,7 +1336,7 @@
         <v>2.2435900000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>106</v>
       </c>
@@ -1346,7 +1356,7 @@
         <v>2.9322499999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>106</v>
       </c>
@@ -1366,7 +1376,7 @@
         <v>4.88889</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -1386,7 +1396,7 @@
         <v>2.2633700000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>106</v>
       </c>
@@ -1406,7 +1416,7 @@
         <v>5.3177700000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -1426,7 +1436,7 @@
         <v>6.1242700000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>106</v>
       </c>
@@ -1446,7 +1456,7 @@
         <v>5.2631600000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -1466,7 +1476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>106</v>
       </c>
@@ -1486,7 +1496,7 @@
         <v>3.0054599999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>106</v>
       </c>
@@ -1506,7 +1516,7 @@
         <v>3.2258100000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>106</v>
       </c>
@@ -1526,7 +1536,7 @@
         <v>6.0829399999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>106</v>
       </c>
@@ -1546,7 +1556,7 @@
         <v>3.5322100000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>106</v>
       </c>
@@ -1566,7 +1576,7 @@
         <v>5.2990000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>106</v>
       </c>
@@ -1586,7 +1596,7 @@
         <v>6.6403699999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -1606,7 +1616,7 @@
         <v>3.10711</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>106</v>
       </c>
@@ -1626,7 +1636,7 @@
         <v>5.6939500000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>106</v>
       </c>
@@ -1646,7 +1656,7 @@
         <v>3.4852500000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>106</v>
       </c>
@@ -1666,7 +1676,7 @@
         <v>5.8895</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>106</v>
       </c>
@@ -1686,7 +1696,7 @@
         <v>5.5374600000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>106</v>
       </c>
@@ -1706,7 +1716,7 @@
         <v>5.39262</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -1726,7 +1736,7 @@
         <v>4.5005499999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>106</v>
       </c>
@@ -1746,7 +1756,7 @@
         <v>5.3061199999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>106</v>
       </c>
@@ -1766,7 +1776,7 @@
         <v>4.8519199999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -1786,7 +1796,7 @@
         <v>4.1850199999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -1806,7 +1816,7 @@
         <v>7.3490700000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>106</v>
       </c>
@@ -1826,7 +1836,7 @@
         <v>4.8754600000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>106</v>
       </c>
@@ -1846,7 +1856,7 @@
         <v>3.42679</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>106</v>
       </c>
@@ -1866,7 +1876,7 @@
         <v>5.3022</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>106</v>
       </c>
@@ -1886,7 +1896,7 @@
         <v>6.26518</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>106</v>
       </c>
@@ -1906,7 +1916,7 @@
         <v>4.3238300000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>106</v>
       </c>
@@ -1926,7 +1936,7 @@
         <v>4.7925399999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>106</v>
       </c>
@@ -1946,7 +1956,7 @@
         <v>6.5255700000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>106</v>
       </c>
@@ -1966,7 +1976,7 @@
         <v>4.6082900000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>106</v>
       </c>
@@ -1986,7 +1996,7 @@
         <v>3.9301300000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>106</v>
       </c>
@@ -2006,7 +2016,7 @@
         <v>5.0218299999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>106</v>
       </c>
@@ -2026,7 +2036,7 @@
         <v>7.6029600000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>106</v>
       </c>
@@ -2046,7 +2056,7 @@
         <v>3.94089</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>106</v>
       </c>
@@ -2066,7 +2076,7 @@
         <v>4.4834300000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>106</v>
       </c>
@@ -2086,7 +2096,7 @@
         <v>6.8083099999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>106</v>
       </c>
@@ -2106,7 +2116,7 @@
         <v>2.69828</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>106</v>
       </c>
@@ -2126,7 +2136,7 @@
         <v>3.2983500000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>106</v>
       </c>
@@ -2146,7 +2156,7 @@
         <v>8.7947900000000008</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>106</v>
       </c>
@@ -2166,7 +2176,7 @@
         <v>9.2032100000000003</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>106</v>
       </c>
@@ -2186,7 +2196,7 @@
         <v>4.9454099999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>106</v>
       </c>
@@ -2206,7 +2216,7 @@
         <v>5.3075999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>106</v>
       </c>
@@ -2226,7 +2236,7 @@
         <v>8.6234199999999994</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>106</v>
       </c>
@@ -2246,7 +2256,7 @@
         <v>4.1394299999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>106</v>
       </c>
@@ -2266,7 +2276,7 @@
         <v>5.9829100000000004</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>106</v>
       </c>
@@ -2286,7 +2296,7 @@
         <v>6.2989300000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>106</v>
       </c>
@@ -2306,7 +2316,7 @@
         <v>5.0522600000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>106</v>
       </c>
@@ -2326,7 +2336,7 @@
         <v>5.1463200000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>106</v>
       </c>
@@ -2346,7 +2356,7 @@
         <v>7.5112100000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>106</v>
       </c>
@@ -2366,7 +2376,7 @@
         <v>4.1180099999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>106</v>
       </c>
@@ -2386,7 +2396,7 @@
         <v>5.7203400000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>106</v>
       </c>
@@ -2406,7 +2416,7 @@
         <v>5.5280500000000004</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>106</v>
       </c>
@@ -2426,7 +2436,7 @@
         <v>3.9280599999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -2446,7 +2456,7 @@
         <v>5.5645300000000004</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>106</v>
       </c>
@@ -2466,7 +2476,7 @@
         <v>4.39771</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>106</v>
       </c>
@@ -2486,7 +2496,7 @@
         <v>7.1207399999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>106</v>
       </c>
@@ -2506,7 +2516,7 @@
         <v>4.4516799999999996</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>106</v>
       </c>
@@ -2526,7 +2536,7 @@
         <v>4.4394299999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -2546,7 +2556,7 @@
         <v>9.5427400000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>106</v>
       </c>
@@ -2566,7 +2576,7 @@
         <v>4.9707600000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>106</v>
       </c>
@@ -2586,7 +2596,7 @@
         <v>2.8077800000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>106</v>
       </c>
@@ -2606,7 +2616,7 @@
         <v>4.6087899999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>106</v>
       </c>
@@ -2626,7 +2636,7 @@
         <v>5.3571400000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>106</v>
       </c>
@@ -2646,7 +2656,7 @@
         <v>5.3738299999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>106</v>
       </c>
@@ -2666,7 +2676,7 @@
         <v>3.13653</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>106</v>
       </c>
@@ -2686,7 +2696,7 @@
         <v>5.6785399999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -2706,7 +2716,7 @@
         <v>10.49658</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>106</v>
       </c>
@@ -2726,7 +2736,7 @@
         <v>5.6158599999999996</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>106</v>
       </c>
@@ -2746,7 +2756,7 @@
         <v>6.79305</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>106</v>
       </c>
